--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Retinopatías (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Retinopatías (INC).xlsx
@@ -497,2700 +497,2700 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.408678148937839</v>
+        <v>6.382885572139303</v>
       </c>
       <c r="B2" t="n">
-        <v>2.858</v>
+        <v>2.883999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.96258412698412</v>
+        <v>10.828</v>
       </c>
       <c r="D2" t="n">
-        <v>49.56681982942425</v>
+        <v>49.53968159203973</v>
       </c>
       <c r="E2" t="n">
-        <v>33.92144761904763</v>
+        <v>33.68000000000002</v>
       </c>
       <c r="F2" t="n">
-        <v>65.37759999999997</v>
+        <v>65.59599999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>70.20836616915415</v>
+        <v>70.20704477611932</v>
       </c>
       <c r="H2" t="n">
-        <v>51.8869057720058</v>
+        <v>51.64800000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>82.79363339993337</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>52.32952985074615</v>
+        <v>52.53673631840784</v>
       </c>
       <c r="K2" t="n">
-        <v>33.78151618381619</v>
+        <v>34.50400000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>70.06261322751325</v>
+        <v>70.11599999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.09400050092735812</v>
+        <v>0.08606965174129338</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4055438596491219</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>2.239500102661292</v>
+        <v>2.246308457711441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9572295763060465</v>
+        <v>0.8680000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.867690476190475</v>
+        <v>3.867999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8210890310352993</v>
+        <v>0.8002786069651739</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09592427307340128</v>
+        <v>0.052</v>
       </c>
       <c r="I3" t="n">
-        <v>1.875868968068969</v>
+        <v>1.823999999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2777160704414426</v>
+        <v>0.2743880597014918</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8297778134146542</v>
+        <v>0.8159999999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1936248294434747</v>
+        <v>0.1683184079601989</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6685527548704022</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="D4" t="n">
-        <v>3.947085974887453</v>
+        <v>3.93725373134327</v>
       </c>
       <c r="E4" t="n">
-        <v>1.932997619047621</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>6.485412698412699</v>
+        <v>6.480000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>3.733119071310105</v>
+        <v>3.7212935323383</v>
       </c>
       <c r="H4" t="n">
-        <v>1.667110821762114</v>
+        <v>1.38</v>
       </c>
       <c r="I4" t="n">
-        <v>6.537682539682534</v>
+        <v>6.496</v>
       </c>
       <c r="J4" t="n">
-        <v>1.071814925373133</v>
+        <v>1.07755223880597</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>2.25912698412698</v>
+        <v>2.204000000000002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1314775024821263</v>
+        <v>0.123462686567164</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5272050643313804</v>
+        <v>0.4639999999999997</v>
       </c>
       <c r="D5" t="n">
-        <v>2.817419752966757</v>
+        <v>2.823223880597006</v>
       </c>
       <c r="E5" t="n">
-        <v>1.11612086834734</v>
+        <v>1.036</v>
       </c>
       <c r="F5" t="n">
-        <v>4.854185214785215</v>
+        <v>4.735999999999997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9458494023389536</v>
+        <v>0.9443582089552242</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1311525763063072</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="I5" t="n">
-        <v>2.111963332963332</v>
+        <v>2.028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3687624823880301</v>
+        <v>0.3797810945273621</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010253772967086</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9042304983021391</v>
+        <v>0.9134527363184067</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1885105783105783</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.836489417989421</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>12.76550497512436</v>
+        <v>12.71158208955223</v>
       </c>
       <c r="E6" t="n">
-        <v>6.936966666666665</v>
+        <v>6.888000000000003</v>
       </c>
       <c r="F6" t="n">
-        <v>19.33556666666666</v>
+        <v>18.95199999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>16.99000033167496</v>
+        <v>16.91966169154229</v>
       </c>
       <c r="H6" t="n">
-        <v>8.421324975024973</v>
+        <v>8.387999999999996</v>
       </c>
       <c r="I6" t="n">
-        <v>25.05064444444444</v>
+        <v>25.092</v>
       </c>
       <c r="J6" t="n">
-        <v>6.812513432835811</v>
+        <v>6.768457711442775</v>
       </c>
       <c r="K6" t="n">
-        <v>3.677951568555284</v>
+        <v>3.148000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>12.09278585858586</v>
+        <v>11.992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.388102266445548</v>
+        <v>4.372995024875606</v>
       </c>
       <c r="B7" t="n">
-        <v>1.709599999999999</v>
+        <v>1.775999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>7.976450793650783</v>
+        <v>7.876000000000004</v>
       </c>
       <c r="D7" t="n">
-        <v>42.90168988391377</v>
+        <v>42.91518407960195</v>
       </c>
       <c r="E7" t="n">
-        <v>26.39880000000002</v>
+        <v>26.31200000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>59.24800000000004</v>
+        <v>59.10000000000004</v>
       </c>
       <c r="G7" t="n">
-        <v>66.37519071310108</v>
+        <v>66.25938308457701</v>
       </c>
       <c r="H7" t="n">
-        <v>48.92407898027897</v>
+        <v>48.80000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>80.0263333333334</v>
+        <v>79.85599999999997</v>
       </c>
       <c r="J7" t="n">
-        <v>46.48460033167483</v>
+        <v>46.42238805970134</v>
       </c>
       <c r="K7" t="n">
-        <v>29.92306293706294</v>
+        <v>30.30799999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>64.2320888888889</v>
+        <v>63.76000000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.01048851509646</v>
+        <v>11.10734328358208</v>
       </c>
       <c r="B8" t="n">
-        <v>6.011355555555554</v>
+        <v>6.047999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>16.48147662337664</v>
+        <v>16.47999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>71.30537575219131</v>
+        <v>71.3698109452736</v>
       </c>
       <c r="E8" t="n">
-        <v>54.54502142857146</v>
+        <v>55.20000000000002</v>
       </c>
       <c r="F8" t="n">
-        <v>84.29611904761902</v>
+        <v>84.71599999999997</v>
       </c>
       <c r="G8" t="n">
-        <v>96.36298283343778</v>
+        <v>96.37257711442777</v>
       </c>
       <c r="H8" t="n">
-        <v>93.60445602743006</v>
+        <v>93.42800000000005</v>
       </c>
       <c r="I8" t="n">
-        <v>98.3784679072205</v>
+        <v>98.384</v>
       </c>
       <c r="J8" t="n">
-        <v>92.88729969991304</v>
+        <v>92.80037810945259</v>
       </c>
       <c r="K8" t="n">
-        <v>85.2853594937632</v>
+        <v>84.76799999999996</v>
       </c>
       <c r="L8" t="n">
-        <v>97.04335389484669</v>
+        <v>97.01199999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7176417560143911</v>
+        <v>0.688835820895521</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03876002886002886</v>
+        <v>0.016</v>
       </c>
       <c r="C9" t="n">
-        <v>1.674306349206348</v>
+        <v>1.623999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>11.21902487562188</v>
+        <v>11.13418905472637</v>
       </c>
       <c r="E9" t="n">
-        <v>5.756233333333337</v>
+        <v>5.567999999999997</v>
       </c>
       <c r="F9" t="n">
-        <v>17.6236</v>
+        <v>17.48800000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>15.24213598673299</v>
+        <v>15.27709452736318</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847143419543416</v>
+        <v>7.579999999999997</v>
       </c>
       <c r="I9" t="n">
-        <v>23.62404285714288</v>
+        <v>23.656</v>
       </c>
       <c r="J9" t="n">
-        <v>5.705049751243775</v>
+        <v>5.72748258706467</v>
       </c>
       <c r="K9" t="n">
-        <v>2.251206840871546</v>
+        <v>2.432000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>9.911480038480031</v>
+        <v>9.912000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.95077692537791</v>
+        <v>12.07854726368158</v>
       </c>
       <c r="B10" t="n">
-        <v>6.415110885846182</v>
+        <v>6.664000000000003</v>
       </c>
       <c r="C10" t="n">
-        <v>18.09129481259481</v>
+        <v>18.28</v>
       </c>
       <c r="D10" t="n">
-        <v>72.71763052516843</v>
+        <v>72.61287562189044</v>
       </c>
       <c r="E10" t="n">
-        <v>56.29918015823568</v>
+        <v>57.07200000000002</v>
       </c>
       <c r="F10" t="n">
-        <v>85.69385014430014</v>
+        <v>85.56399999999998</v>
       </c>
       <c r="G10" t="n">
-        <v>96.34788627223386</v>
+        <v>96.40909452736312</v>
       </c>
       <c r="H10" t="n">
-        <v>93.6070057350324</v>
+        <v>93.51200000000003</v>
       </c>
       <c r="I10" t="n">
-        <v>98.32135356798652</v>
+        <v>98.21599999999994</v>
       </c>
       <c r="J10" t="n">
-        <v>92.84596374277038</v>
+        <v>92.81022885572125</v>
       </c>
       <c r="K10" t="n">
-        <v>85.2384022683984</v>
+        <v>85.72400000000003</v>
       </c>
       <c r="L10" t="n">
-        <v>97.0762072172602</v>
+        <v>96.94800000000004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.30536936744848</v>
+        <v>10.46308457711443</v>
       </c>
       <c r="B11" t="n">
-        <v>5.210000000000003</v>
+        <v>5.456000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>16.21258412698415</v>
+        <v>16.36799999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>64.14511314638924</v>
+        <v>64.36499502487555</v>
       </c>
       <c r="E11" t="n">
-        <v>46.55247619047617</v>
+        <v>46.74399999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>77.60260940170943</v>
+        <v>78.34800000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>86.37153095632937</v>
+        <v>86.40161194029837</v>
       </c>
       <c r="H11" t="n">
-        <v>75.35702591319931</v>
+        <v>75.44800000000005</v>
       </c>
       <c r="I11" t="n">
-        <v>93.1402724192623</v>
+        <v>93.14399999999995</v>
       </c>
       <c r="J11" t="n">
-        <v>75.73259883913761</v>
+        <v>75.8382288557213</v>
       </c>
       <c r="K11" t="n">
-        <v>61.4913688311688</v>
+        <v>61.80799999999996</v>
       </c>
       <c r="L11" t="n">
-        <v>87.29033888878007</v>
+        <v>87.324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.813007628524038</v>
+        <v>3.819641791044765</v>
       </c>
       <c r="B12" t="n">
-        <v>1.44</v>
+        <v>1.395999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>6.879999999999995</v>
+        <v>6.964</v>
       </c>
       <c r="D12" t="n">
-        <v>32.87168656716409</v>
+        <v>32.88640796019893</v>
       </c>
       <c r="E12" t="n">
-        <v>19.32759999999998</v>
+        <v>19.172</v>
       </c>
       <c r="F12" t="n">
-        <v>45.72799999999999</v>
+        <v>46.01600000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>45.00687761194017</v>
+        <v>45.1395621890546</v>
       </c>
       <c r="H12" t="n">
-        <v>27.55084771524771</v>
+        <v>27.93600000000002</v>
       </c>
       <c r="I12" t="n">
-        <v>59.45733333333337</v>
+        <v>59.77599999999998</v>
       </c>
       <c r="J12" t="n">
-        <v>27.77751243781085</v>
+        <v>27.51637810945264</v>
       </c>
       <c r="K12" t="n">
-        <v>15.87629595959596</v>
+        <v>15.748</v>
       </c>
       <c r="L12" t="n">
-        <v>39.904</v>
+        <v>40.65600000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.73679510230926</v>
+        <v>14.71603980099501</v>
       </c>
       <c r="B13" t="n">
-        <v>8.163509523809525</v>
+        <v>8.135999999999997</v>
       </c>
       <c r="C13" t="n">
-        <v>22.38330955125599</v>
+        <v>22.48399999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>73.86277007431565</v>
+        <v>73.72320398009941</v>
       </c>
       <c r="E13" t="n">
-        <v>57.47836280747066</v>
+        <v>56.90000000000002</v>
       </c>
       <c r="F13" t="n">
-        <v>85.87591113977147</v>
+        <v>85.76399999999995</v>
       </c>
       <c r="G13" t="n">
-        <v>95.45365894718849</v>
+        <v>95.46133333333319</v>
       </c>
       <c r="H13" t="n">
-        <v>91.3965935439375</v>
+        <v>91.34399999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>97.98837451819136</v>
+        <v>97.90800000000003</v>
       </c>
       <c r="J13" t="n">
-        <v>90.58422509173707</v>
+        <v>90.60985074626855</v>
       </c>
       <c r="K13" t="n">
-        <v>82.11595971298853</v>
+        <v>82.61199999999997</v>
       </c>
       <c r="L13" t="n">
-        <v>95.83499574842767</v>
+        <v>95.71599999999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.49058920476978</v>
+        <v>12.30260696517412</v>
       </c>
       <c r="B14" t="n">
-        <v>6.778695238095238</v>
+        <v>6.636000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>18.91157008547007</v>
+        <v>18.44</v>
       </c>
       <c r="D14" t="n">
-        <v>70.1646757069629</v>
+        <v>70.00019900497502</v>
       </c>
       <c r="E14" t="n">
-        <v>53.662137316605</v>
+        <v>53.89999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>82.88410952380953</v>
+        <v>82.41999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>92.66704707611279</v>
+        <v>92.57617910447748</v>
       </c>
       <c r="H14" t="n">
-        <v>86.28163479426848</v>
+        <v>86.56400000000005</v>
       </c>
       <c r="I14" t="n">
-        <v>96.60971661515299</v>
+        <v>96.56400000000004</v>
       </c>
       <c r="J14" t="n">
-        <v>85.86455347034034</v>
+        <v>85.76975124378104</v>
       </c>
       <c r="K14" t="n">
-        <v>75.14729700661519</v>
+        <v>75.05599999999998</v>
       </c>
       <c r="L14" t="n">
-        <v>93.08094796521566</v>
+        <v>92.97599999999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1785976637080821</v>
+        <v>0.1863482587064674</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6236532984502021</v>
+        <v>0.6200000000000007</v>
       </c>
       <c r="D15" t="n">
-        <v>3.369361197619398</v>
+        <v>3.405731343283573</v>
       </c>
       <c r="E15" t="n">
-        <v>1.484627389277389</v>
+        <v>1.583999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>5.47352987012987</v>
+        <v>5.504</v>
       </c>
       <c r="G15" t="n">
-        <v>1.154107143216098</v>
+        <v>1.150686567164178</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2351433941638159</v>
+        <v>0.08800000000000002</v>
       </c>
       <c r="I15" t="n">
-        <v>2.341096825396822</v>
+        <v>2.344</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4755470855291742</v>
+        <v>0.44760199004975</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.046263974908247</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9084095396035684</v>
+        <v>0.9312636815920387</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2157328005328006</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.822019047619049</v>
+        <v>1.915999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>12.83103731343282</v>
+        <v>12.79806965174128</v>
       </c>
       <c r="E16" t="n">
-        <v>6.997833333333329</v>
+        <v>7.020000000000005</v>
       </c>
       <c r="F16" t="n">
-        <v>19.33464761904761</v>
+        <v>19.07599999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>17.08999635157545</v>
+        <v>17.00535323383084</v>
       </c>
       <c r="H16" t="n">
-        <v>8.508801938801936</v>
+        <v>8.519999999999998</v>
       </c>
       <c r="I16" t="n">
-        <v>25.01366666666665</v>
+        <v>25.06799999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>6.82722520729684</v>
+        <v>6.821791044776109</v>
       </c>
       <c r="K16" t="n">
-        <v>3.677951568555284</v>
+        <v>3.204</v>
       </c>
       <c r="L16" t="n">
-        <v>12.49261746031746</v>
+        <v>12.088</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.760710226644546</v>
+        <v>3.780119402985066</v>
       </c>
       <c r="B17" t="n">
-        <v>1.435999999999999</v>
+        <v>1.464</v>
       </c>
       <c r="C17" t="n">
-        <v>6.671999999999986</v>
+        <v>6.796000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>32.28152238805963</v>
+        <v>32.38435820895518</v>
       </c>
       <c r="E17" t="n">
-        <v>19.48559999999998</v>
+        <v>19.77600000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>44.62333333333331</v>
+        <v>45.33199999999997</v>
       </c>
       <c r="G17" t="n">
-        <v>44.59616915422878</v>
+        <v>44.65596019900489</v>
       </c>
       <c r="H17" t="n">
-        <v>26.61244444444444</v>
+        <v>27.476</v>
       </c>
       <c r="I17" t="n">
-        <v>59.38577777777786</v>
+        <v>59.50399999999996</v>
       </c>
       <c r="J17" t="n">
-        <v>27.40547263681582</v>
+        <v>27.38706467661682</v>
       </c>
       <c r="K17" t="n">
-        <v>15.72770202020203</v>
+        <v>15.976</v>
       </c>
       <c r="L17" t="n">
-        <v>39.44927777777775</v>
+        <v>39.68000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1936248294434747</v>
+        <v>0.1683184079601989</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6747873425049897</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="D18" t="n">
-        <v>3.94187536128878</v>
+        <v>3.93725373134327</v>
       </c>
       <c r="E18" t="n">
-        <v>1.840100000000001</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>6.485412698412699</v>
+        <v>6.480000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>3.733119071310105</v>
+        <v>3.7212935323383</v>
       </c>
       <c r="H18" t="n">
-        <v>1.667110821762114</v>
+        <v>1.38</v>
       </c>
       <c r="I18" t="n">
-        <v>6.529187301587295</v>
+        <v>6.496</v>
       </c>
       <c r="J18" t="n">
-        <v>1.071814925373133</v>
+        <v>1.07755223880597</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>2.253971428571425</v>
+        <v>2.204000000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.66751055831951</v>
+        <v>12.49098507462685</v>
       </c>
       <c r="B19" t="n">
-        <v>6.858000000000005</v>
+        <v>6.744000000000007</v>
       </c>
       <c r="C19" t="n">
-        <v>18.99323333333332</v>
+        <v>18.932</v>
       </c>
       <c r="D19" t="n">
-        <v>66.46850851873377</v>
+        <v>66.60676616915418</v>
       </c>
       <c r="E19" t="n">
-        <v>49.14557014652013</v>
+        <v>49.26800000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>79.47675384615385</v>
+        <v>79.58799999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>86.60521311695489</v>
+        <v>86.83118407960194</v>
       </c>
       <c r="H19" t="n">
-        <v>76.90875739162797</v>
+        <v>76.98800000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>93.4071846227847</v>
+        <v>93.37199999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>77.14784798231051</v>
+        <v>77.1206965174128</v>
       </c>
       <c r="K19" t="n">
-        <v>64.43323621933624</v>
+        <v>64.64399999999996</v>
       </c>
       <c r="L19" t="n">
-        <v>87.1882509489422</v>
+        <v>87.45199999999997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.251748392955855</v>
+        <v>1.269870646766168</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2814267399267399</v>
+        <v>0.336</v>
       </c>
       <c r="C20" t="n">
-        <v>2.551875213675216</v>
+        <v>2.627999999999998</v>
       </c>
       <c r="D20" t="n">
-        <v>15.06406218905472</v>
+        <v>14.97408955223881</v>
       </c>
       <c r="E20" t="n">
-        <v>8.946338888888889</v>
+        <v>8.851999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>21.44512424242425</v>
+        <v>21.796</v>
       </c>
       <c r="G20" t="n">
-        <v>18.74553300165837</v>
+        <v>18.76312437810945</v>
       </c>
       <c r="H20" t="n">
-        <v>9.686316915328677</v>
+        <v>9.399999999999995</v>
       </c>
       <c r="I20" t="n">
-        <v>27.07586666666664</v>
+        <v>27.48799999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>8.283791376451065</v>
+        <v>8.326049751243763</v>
       </c>
       <c r="K20" t="n">
-        <v>3.82261031477982</v>
+        <v>4.399999999999997</v>
       </c>
       <c r="L20" t="n">
-        <v>13.58888888888886</v>
+        <v>13.53200000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3671122554615086</v>
+        <v>0.3775124378109448</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9809840011840013</v>
+        <v>1.016</v>
       </c>
       <c r="D21" t="n">
-        <v>5.936894073643321</v>
+        <v>5.889890547263675</v>
       </c>
       <c r="E21" t="n">
-        <v>3.051896248196249</v>
+        <v>3.04</v>
       </c>
       <c r="F21" t="n">
-        <v>9.511352380952383</v>
+        <v>9.664000000000005</v>
       </c>
       <c r="G21" t="n">
-        <v>5.112789196872772</v>
+        <v>5.135283582089543</v>
       </c>
       <c r="H21" t="n">
-        <v>2.333085243938244</v>
+        <v>2.356000000000002</v>
       </c>
       <c r="I21" t="n">
-        <v>8.654380952380945</v>
+        <v>8.620000000000005</v>
       </c>
       <c r="J21" t="n">
-        <v>1.761232883203032</v>
+        <v>1.753731343283582</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5960000000000004</v>
       </c>
       <c r="L21" t="n">
-        <v>3.304228623228619</v>
+        <v>3.380000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13.2709749365799</v>
+        <v>13.31076616915422</v>
       </c>
       <c r="B22" t="n">
-        <v>6.904384992784994</v>
+        <v>6.999999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>19.68105367965368</v>
+        <v>19.71999999999998</v>
       </c>
       <c r="D22" t="n">
-        <v>74.10055556771715</v>
+        <v>73.88553233830837</v>
       </c>
       <c r="E22" t="n">
-        <v>57.84669111605077</v>
+        <v>57.77200000000003</v>
       </c>
       <c r="F22" t="n">
-        <v>86.8613483267883</v>
+        <v>86.70000000000006</v>
       </c>
       <c r="G22" t="n">
-        <v>96.43560897068248</v>
+        <v>96.4654527363183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.60952954455621</v>
+        <v>94.01599999999995</v>
       </c>
       <c r="I22" t="n">
-        <v>98.32081694884835</v>
+        <v>98.37599999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>92.87480338372643</v>
+        <v>92.8887562189054</v>
       </c>
       <c r="K22" t="n">
-        <v>85.22746356890097</v>
+        <v>83.98399999999998</v>
       </c>
       <c r="L22" t="n">
-        <v>97.09236587788065</v>
+        <v>97.01599999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1827816993886351</v>
+        <v>0.1899701492537312</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6405314129283162</v>
+        <v>0.6720000000000006</v>
       </c>
       <c r="D23" t="n">
-        <v>3.588347390033948</v>
+        <v>3.633771144278595</v>
       </c>
       <c r="E23" t="n">
-        <v>1.555121184371184</v>
+        <v>1.564</v>
       </c>
       <c r="F23" t="n">
-        <v>6.202914285714285</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1.188618415857221</v>
+        <v>1.210189054726367</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1625374548702583</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>2.620750120250124</v>
+        <v>2.627999999999998</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4837434415225449</v>
+        <v>0.4868258706467647</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.245915873015872</v>
+        <v>1.244000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9085213614467336</v>
+        <v>0.9279203980099489</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1822857142857144</v>
+        <v>0.188</v>
       </c>
       <c r="C24" t="n">
-        <v>1.824374603174605</v>
+        <v>1.915999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>12.80359071310115</v>
+        <v>12.78087562189053</v>
       </c>
       <c r="E24" t="n">
-        <v>6.945666666666661</v>
+        <v>6.984000000000004</v>
       </c>
       <c r="F24" t="n">
-        <v>19.7242857142857</v>
+        <v>19.13599999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>17.04025008291874</v>
+        <v>16.96427860696517</v>
       </c>
       <c r="H24" t="n">
-        <v>8.505024161024158</v>
+        <v>8.531999999999996</v>
       </c>
       <c r="I24" t="n">
-        <v>25.1027111111111</v>
+        <v>25.14</v>
       </c>
       <c r="J24" t="n">
-        <v>6.820372802653392</v>
+        <v>6.811940298507454</v>
       </c>
       <c r="K24" t="n">
-        <v>3.677951568555284</v>
+        <v>3.204</v>
       </c>
       <c r="L24" t="n">
-        <v>12.32917301587303</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5874061599171048</v>
+        <v>0.5961393034825866</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02236363636363636</v>
+        <v>0.004</v>
       </c>
       <c r="C25" t="n">
-        <v>1.375308302808304</v>
+        <v>1.364</v>
       </c>
       <c r="D25" t="n">
-        <v>10.04217736318407</v>
+        <v>10.01880597014924</v>
       </c>
       <c r="E25" t="n">
-        <v>5.351200000000005</v>
+        <v>5.484</v>
       </c>
       <c r="F25" t="n">
-        <v>15.5918</v>
+        <v>15.69599999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>14.34106042801863</v>
+        <v>14.30477611940297</v>
       </c>
       <c r="H25" t="n">
-        <v>7.086503498244673</v>
+        <v>7.307999999999995</v>
       </c>
       <c r="I25" t="n">
-        <v>22.08584285714285</v>
+        <v>22.116</v>
       </c>
       <c r="J25" t="n">
-        <v>5.058556550580422</v>
+        <v>5.041154228855712</v>
       </c>
       <c r="K25" t="n">
-        <v>2.251206840871546</v>
+        <v>2.54</v>
       </c>
       <c r="L25" t="n">
-        <v>8.718161904761915</v>
+        <v>8.499999999999993</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3629243515467389</v>
+        <v>0.3590845771144275</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.975515747215747</v>
+        <v>1.012</v>
       </c>
       <c r="D26" t="n">
-        <v>5.960005433510646</v>
+        <v>5.935482587064664</v>
       </c>
       <c r="E26" t="n">
-        <v>3.027684343434343</v>
+        <v>3.04</v>
       </c>
       <c r="F26" t="n">
-        <v>9.285085714285715</v>
+        <v>9.416000000000007</v>
       </c>
       <c r="G26" t="n">
-        <v>5.0892961620469</v>
+        <v>5.105611940298501</v>
       </c>
       <c r="H26" t="n">
-        <v>2.314755573608574</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="I26" t="n">
-        <v>8.696825396825385</v>
+        <v>8.688000000000008</v>
       </c>
       <c r="J26" t="n">
-        <v>1.750935702440179</v>
+        <v>1.770129353233831</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5840000000000005</v>
       </c>
       <c r="L26" t="n">
-        <v>3.190952806452806</v>
+        <v>3.223999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16.96504323619993</v>
+        <v>16.94282587064677</v>
       </c>
       <c r="B27" t="n">
-        <v>9.352382539682543</v>
+        <v>9.251999999999995</v>
       </c>
       <c r="C27" t="n">
-        <v>25.1026047619048</v>
+        <v>25.70799999999998</v>
       </c>
       <c r="D27" t="n">
-        <v>74.4556726721101</v>
+        <v>74.48823880597013</v>
       </c>
       <c r="E27" t="n">
-        <v>58.75430669784403</v>
+        <v>59.23200000000006</v>
       </c>
       <c r="F27" t="n">
-        <v>86.56510462737224</v>
+        <v>86.75199999999997</v>
       </c>
       <c r="G27" t="n">
-        <v>95.48328899657002</v>
+        <v>95.46037810945259</v>
       </c>
       <c r="H27" t="n">
-        <v>91.3965935439375</v>
+        <v>91.81600000000007</v>
       </c>
       <c r="I27" t="n">
-        <v>98.07789416065386</v>
+        <v>98.24400000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>90.93762988625512</v>
+        <v>90.99651741293523</v>
       </c>
       <c r="K27" t="n">
-        <v>82.07829366235696</v>
+        <v>82.52800000000006</v>
       </c>
       <c r="L27" t="n">
-        <v>96.01798010839383</v>
+        <v>96.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.51868656716417</v>
+        <v>5.509333333333323</v>
       </c>
       <c r="B28" t="n">
-        <v>2.250666666666668</v>
+        <v>2.228000000000002</v>
       </c>
       <c r="C28" t="n">
-        <v>9.477111111111103</v>
+        <v>9.488000000000005</v>
       </c>
       <c r="D28" t="n">
-        <v>46.70648971807618</v>
+        <v>46.78065671641782</v>
       </c>
       <c r="E28" t="n">
-        <v>30.36379999999997</v>
+        <v>30.53999999999998</v>
       </c>
       <c r="F28" t="n">
-        <v>61.8332</v>
+        <v>61.65599999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>68.58515422885563</v>
+        <v>68.61643781094516</v>
       </c>
       <c r="H28" t="n">
-        <v>50.15884896584898</v>
+        <v>50.52800000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>81.79306507936501</v>
+        <v>81.76800000000006</v>
       </c>
       <c r="J28" t="n">
-        <v>50.24041791044774</v>
+        <v>50.17952238805967</v>
       </c>
       <c r="K28" t="n">
-        <v>32.27265292485292</v>
+        <v>33.21199999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>66.60363227513236</v>
+        <v>66.71199999999995</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2120029702562033</v>
+        <v>0.2124776119402977</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7796449402449384</v>
+        <v>0.7320000000000003</v>
       </c>
       <c r="D29" t="n">
-        <v>3.766255508173406</v>
+        <v>3.742726368159195</v>
       </c>
       <c r="E29" t="n">
-        <v>1.611694200244199</v>
+        <v>1.687999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>6.414780952380952</v>
+        <v>6.403999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>1.233588399273473</v>
+        <v>1.220537313432834</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1637739980801349</v>
+        <v>0.204</v>
       </c>
       <c r="I29" t="n">
-        <v>2.632657142857148</v>
+        <v>2.635999999999998</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5488541893706058</v>
+        <v>0.543800995024874</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.283557142857143</v>
+        <v>1.296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.194317910447742</v>
+        <v>3.184238805970135</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9022898989898986</v>
+        <v>1.012</v>
       </c>
       <c r="C30" t="n">
-        <v>6.138901587301583</v>
+        <v>6.12</v>
       </c>
       <c r="D30" t="n">
-        <v>30.33881426202311</v>
+        <v>30.41136318407947</v>
       </c>
       <c r="E30" t="n">
-        <v>18.39826666666668</v>
+        <v>18.39200000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>43.49133333333333</v>
+        <v>43.60000000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>43.15526699834153</v>
+        <v>43.11034825870636</v>
       </c>
       <c r="H30" t="n">
-        <v>25.85018638398638</v>
+        <v>25.504</v>
       </c>
       <c r="I30" t="n">
-        <v>57.67895555555565</v>
+        <v>57.71599999999998</v>
       </c>
       <c r="J30" t="n">
-        <v>25.27404975124372</v>
+        <v>25.32063681592035</v>
       </c>
       <c r="K30" t="n">
-        <v>14.39466075036076</v>
+        <v>14.23599999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>38.33457301587303</v>
+        <v>38.55199999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.43589972360418</v>
+        <v>11.39998009950248</v>
       </c>
       <c r="B31" t="n">
-        <v>5.834466666666672</v>
+        <v>5.836000000000004</v>
       </c>
       <c r="C31" t="n">
-        <v>17.67963174603174</v>
+        <v>17.732</v>
       </c>
       <c r="D31" t="n">
-        <v>69.50245563847419</v>
+        <v>69.31341293532336</v>
       </c>
       <c r="E31" t="n">
-        <v>52.46720097418925</v>
+        <v>52.01599999999997</v>
       </c>
       <c r="F31" t="n">
-        <v>82.47924603174603</v>
+        <v>82.44799999999992</v>
       </c>
       <c r="G31" t="n">
-        <v>92.49096278922836</v>
+        <v>92.4887164179103</v>
       </c>
       <c r="H31" t="n">
-        <v>85.90534244450849</v>
+        <v>86.01599999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>96.49051058294994</v>
+        <v>96.544</v>
       </c>
       <c r="J31" t="n">
-        <v>85.40322075884308</v>
+        <v>85.27154228855711</v>
       </c>
       <c r="K31" t="n">
-        <v>73.82270972075577</v>
+        <v>74.50800000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>92.86647936116172</v>
+        <v>92.77200000000008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.2581512385164</v>
+        <v>11.29709452736317</v>
       </c>
       <c r="B32" t="n">
-        <v>6.194272527472528</v>
+        <v>6.111999999999997</v>
       </c>
       <c r="C32" t="n">
-        <v>17.37225657305656</v>
+        <v>17.30000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>71.00949270480754</v>
+        <v>70.93460696517397</v>
       </c>
       <c r="E32" t="n">
-        <v>54.08311335183941</v>
+        <v>53.43200000000004</v>
       </c>
       <c r="F32" t="n">
-        <v>84.59332559597264</v>
+        <v>84.23599999999995</v>
       </c>
       <c r="G32" t="n">
-        <v>95.3068991849633</v>
+        <v>95.32208955223871</v>
       </c>
       <c r="H32" t="n">
-        <v>91.39344687727082</v>
+        <v>91.38000000000005</v>
       </c>
       <c r="I32" t="n">
-        <v>97.83764104856959</v>
+        <v>97.76000000000008</v>
       </c>
       <c r="J32" t="n">
-        <v>90.48414544583407</v>
+        <v>90.31480597014922</v>
       </c>
       <c r="K32" t="n">
-        <v>81.97951821909453</v>
+        <v>82.28799999999997</v>
       </c>
       <c r="L32" t="n">
-        <v>95.64091211478754</v>
+        <v>95.67199999999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.56591203506276</v>
+        <v>12.49271641791044</v>
       </c>
       <c r="B33" t="n">
-        <v>6.830695238095238</v>
+        <v>6.84</v>
       </c>
       <c r="C33" t="n">
-        <v>19.16272564102563</v>
+        <v>18.74799999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>70.20331981973239</v>
+        <v>70.16694527363181</v>
       </c>
       <c r="E33" t="n">
-        <v>54.00025376682145</v>
+        <v>54.33199999999995</v>
       </c>
       <c r="F33" t="n">
-        <v>83.13713333333334</v>
+        <v>82.99999999999996</v>
       </c>
       <c r="G33" t="n">
-        <v>92.6698113973637</v>
+        <v>92.62652736318388</v>
       </c>
       <c r="H33" t="n">
-        <v>86.41046035125615</v>
+        <v>86.97600000000004</v>
       </c>
       <c r="I33" t="n">
-        <v>96.60536172690398</v>
+        <v>96.59600000000002</v>
       </c>
       <c r="J33" t="n">
-        <v>85.83225460751164</v>
+        <v>85.6339303482586</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06780609752428</v>
+        <v>74.45999999999995</v>
       </c>
       <c r="L33" t="n">
-        <v>92.91581231524465</v>
+        <v>92.712</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.94353344389164</v>
+        <v>8.96298507462685</v>
       </c>
       <c r="B34" t="n">
-        <v>4.423999999999999</v>
+        <v>4.387999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>14.65653333333332</v>
+        <v>14.648</v>
       </c>
       <c r="D34" t="n">
-        <v>54.29239137645093</v>
+        <v>54.19797014925362</v>
       </c>
       <c r="E34" t="n">
-        <v>37.64799999999997</v>
+        <v>37.7</v>
       </c>
       <c r="F34" t="n">
-        <v>71.99500000000002</v>
+        <v>71.98</v>
       </c>
       <c r="G34" t="n">
-        <v>72.53995489220554</v>
+        <v>72.23130348258698</v>
       </c>
       <c r="H34" t="n">
-        <v>56.28598095238095</v>
+        <v>55.82399999999997</v>
       </c>
       <c r="I34" t="n">
-        <v>85.35516078431392</v>
+        <v>85.50799999999995</v>
       </c>
       <c r="J34" t="n">
         <v>58.13404975124363</v>
       </c>
       <c r="K34" t="n">
-        <v>40.30576837606836</v>
+        <v>40.02</v>
       </c>
       <c r="L34" t="n">
-        <v>74.01733333333344</v>
+        <v>74.184</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.072133088525625</v>
+        <v>1.066885572139302</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1782857142857143</v>
+        <v>0.08400000000000003</v>
       </c>
       <c r="C35" t="n">
-        <v>2.400166748066747</v>
+        <v>2.372000000000002</v>
       </c>
       <c r="D35" t="n">
-        <v>13.58694237542445</v>
+        <v>13.54682587064675</v>
       </c>
       <c r="E35" t="n">
-        <v>7.514404761904756</v>
+        <v>7.567999999999997</v>
       </c>
       <c r="F35" t="n">
-        <v>20.80961471861471</v>
+        <v>20.95999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>17.52772736318407</v>
+        <v>17.49174129353232</v>
       </c>
       <c r="H35" t="n">
-        <v>9.537138597350362</v>
+        <v>9.756000000000002</v>
       </c>
       <c r="I35" t="n">
-        <v>26.63332857142859</v>
+        <v>26.48799999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>7.39599554607912</v>
+        <v>7.37209950248756</v>
       </c>
       <c r="K35" t="n">
-        <v>3.783574600494106</v>
+        <v>3.611999999999997</v>
       </c>
       <c r="L35" t="n">
-        <v>12.45709894179895</v>
+        <v>12.392</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.501603095632948</v>
+        <v>4.463243781094513</v>
       </c>
       <c r="B36" t="n">
-        <v>1.715999999999999</v>
+        <v>1.763999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>8.042450793650792</v>
+        <v>7.948</v>
       </c>
       <c r="D36" t="n">
-        <v>43.19541293532334</v>
+        <v>43.20905472636809</v>
       </c>
       <c r="E36" t="n">
-        <v>27.22080000000001</v>
+        <v>27.364</v>
       </c>
       <c r="F36" t="n">
-        <v>59.61000000000003</v>
+        <v>59.44000000000003</v>
       </c>
       <c r="G36" t="n">
-        <v>66.79399004975119</v>
+        <v>66.66917412935317</v>
       </c>
       <c r="H36" t="n">
-        <v>48.93295993265993</v>
+        <v>48.744</v>
       </c>
       <c r="I36" t="n">
-        <v>80.42251111111102</v>
+        <v>80.18800000000005</v>
       </c>
       <c r="J36" t="n">
-        <v>46.61267993366492</v>
+        <v>46.37749253731334</v>
       </c>
       <c r="K36" t="n">
-        <v>29.98652960372961</v>
+        <v>30.02000000000002</v>
       </c>
       <c r="L36" t="n">
-        <v>63.60966666666675</v>
+        <v>62.80799999999996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4190706419800941</v>
+        <v>0.4345273631840786</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.211716065416064</v>
+        <v>1.192000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>6.554763444681345</v>
+        <v>6.597054726368148</v>
       </c>
       <c r="E37" t="n">
-        <v>3.496933333333331</v>
+        <v>3.448000000000002</v>
       </c>
       <c r="F37" t="n">
-        <v>10.26895238095238</v>
+        <v>10.26</v>
       </c>
       <c r="G37" t="n">
-        <v>5.607457711442774</v>
+        <v>5.58451741293531</v>
       </c>
       <c r="H37" t="n">
-        <v>2.350395531346055</v>
+        <v>2.464000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>9.051228571428581</v>
+        <v>9.103999999999996</v>
       </c>
       <c r="J37" t="n">
-        <v>2.016472636815919</v>
+        <v>1.999880597014924</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.6080000000000005</v>
       </c>
       <c r="L37" t="n">
-        <v>3.646687638287645</v>
+        <v>3.647999999999998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.41214759535655</v>
+        <v>14.37486567164179</v>
       </c>
       <c r="B38" t="n">
-        <v>8.266355555555551</v>
+        <v>8.355999999999995</v>
       </c>
       <c r="C38" t="n">
-        <v>21.18049153439155</v>
+        <v>21.35199999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>71.83411262805731</v>
+        <v>71.49641791044763</v>
       </c>
       <c r="E38" t="n">
-        <v>55.85067282260225</v>
+        <v>55.76400000000002</v>
       </c>
       <c r="F38" t="n">
-        <v>84.27015238095238</v>
+        <v>84.27999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>92.8291337382351</v>
+        <v>92.81532338308455</v>
       </c>
       <c r="H38" t="n">
-        <v>86.25389387901373</v>
+        <v>86.66000000000003</v>
       </c>
       <c r="I38" t="n">
-        <v>96.61488874857515</v>
+        <v>96.57599999999998</v>
       </c>
       <c r="J38" t="n">
-        <v>86.35625954714155</v>
+        <v>86.32384079601988</v>
       </c>
       <c r="K38" t="n">
-        <v>75.54652449024269</v>
+        <v>77.08799999999998</v>
       </c>
       <c r="L38" t="n">
-        <v>93.41716853560386</v>
+        <v>93.37599999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.036189054726369</v>
+        <v>4.076238805970145</v>
       </c>
       <c r="B39" t="n">
         <v>1.608</v>
       </c>
       <c r="C39" t="n">
-        <v>7.625333333333318</v>
+        <v>7.688000000000006</v>
       </c>
       <c r="D39" t="n">
-        <v>33.47714925373131</v>
+        <v>33.58521393034825</v>
       </c>
       <c r="E39" t="n">
-        <v>20.58399999999997</v>
+        <v>20.55600000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>48.66399999999996</v>
+        <v>48.41599999999996</v>
       </c>
       <c r="G39" t="n">
-        <v>45.10297711442769</v>
+        <v>45.19542288557197</v>
       </c>
       <c r="H39" t="n">
-        <v>27.92330990860991</v>
+        <v>27.93599999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>60.38666666666666</v>
+        <v>60.53199999999996</v>
       </c>
       <c r="J39" t="n">
-        <v>28.37090547263667</v>
+        <v>28.38760199004961</v>
       </c>
       <c r="K39" t="n">
-        <v>15.90129595959596</v>
+        <v>16.38000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>42.50800000000007</v>
+        <v>42.87599999999997</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2614129190395246</v>
+        <v>0.253432835820895</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7617182560359025</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="D40" t="n">
-        <v>4.983824942746574</v>
+        <v>5.035462686567156</v>
       </c>
       <c r="E40" t="n">
-        <v>2.363081746031749</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="F40" t="n">
-        <v>7.579144444444442</v>
+        <v>7.644000000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>4.320421120228574</v>
+        <v>4.311402985074625</v>
       </c>
       <c r="H40" t="n">
-        <v>1.701348351363326</v>
+        <v>1.903999999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>7.53897777777778</v>
+        <v>7.451999999999998</v>
       </c>
       <c r="J40" t="n">
-        <v>1.365472755271262</v>
+        <v>1.358069651741293</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.26</v>
       </c>
       <c r="L40" t="n">
-        <v>2.728749446849449</v>
+        <v>2.683999999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.762976703782664</v>
+        <v>3.736179104477599</v>
       </c>
       <c r="B41" t="n">
-        <v>1.510266666666667</v>
+        <v>1.476</v>
       </c>
       <c r="C41" t="n">
-        <v>6.813577777777771</v>
+        <v>6.792000000000004</v>
       </c>
       <c r="D41" t="n">
-        <v>39.56704477611931</v>
+        <v>39.46983084577107</v>
       </c>
       <c r="E41" t="n">
-        <v>24.6195</v>
+        <v>24.35999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>55.18399999999999</v>
+        <v>55.08799999999999</v>
       </c>
       <c r="G41" t="n">
         <v>64.02602985074614</v>
       </c>
       <c r="H41" t="n">
-        <v>45.70548888888888</v>
+        <v>45.78400000000003</v>
       </c>
       <c r="I41" t="n">
-        <v>77.81577777777783</v>
+        <v>77.80399999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>42.83661691542274</v>
+        <v>42.75002985074613</v>
       </c>
       <c r="K41" t="n">
-        <v>27.00375238095239</v>
+        <v>26.56000000000001</v>
       </c>
       <c r="L41" t="n">
-        <v>59.1773333333333</v>
+        <v>59.13999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.28431565189923</v>
+        <v>11.27834825870646</v>
       </c>
       <c r="B42" t="n">
-        <v>6.049833333333332</v>
+        <v>6.063999999999997</v>
       </c>
       <c r="C42" t="n">
-        <v>17.38409523809528</v>
+        <v>17.44399999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>65.6102620379344</v>
+        <v>65.46684577114425</v>
       </c>
       <c r="E42" t="n">
-        <v>48.60820816960816</v>
+        <v>48.628</v>
       </c>
       <c r="F42" t="n">
-        <v>78.92796293706296</v>
+        <v>79.08399999999997</v>
       </c>
       <c r="G42" t="n">
-        <v>86.47410216378415</v>
+        <v>86.47556218905466</v>
       </c>
       <c r="H42" t="n">
-        <v>75.77351890350791</v>
+        <v>75.90400000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>93.23124218098205</v>
+        <v>93.23999999999995</v>
       </c>
       <c r="J42" t="n">
-        <v>76.4577493090104</v>
+        <v>76.568935323383</v>
       </c>
       <c r="K42" t="n">
-        <v>63.59572669552672</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="L42" t="n">
-        <v>87.5753715006127</v>
+        <v>87.74799999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.193885406301805</v>
+        <v>3.184238805970135</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9082898989898988</v>
+        <v>1.012</v>
       </c>
       <c r="C43" t="n">
-        <v>6.140234920634916</v>
+        <v>6.12</v>
       </c>
       <c r="D43" t="n">
-        <v>30.33393864013256</v>
+        <v>30.41136318407947</v>
       </c>
       <c r="E43" t="n">
-        <v>18.44426666666668</v>
+        <v>18.39200000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>43.46933333333332</v>
+        <v>43.60000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>43.19419237147586</v>
+        <v>43.11034825870636</v>
       </c>
       <c r="H43" t="n">
-        <v>25.88821971731971</v>
+        <v>25.504</v>
       </c>
       <c r="I43" t="n">
-        <v>57.66028888888897</v>
+        <v>57.71599999999998</v>
       </c>
       <c r="J43" t="n">
-        <v>25.27671641791039</v>
+        <v>25.32063681592035</v>
       </c>
       <c r="K43" t="n">
-        <v>14.39466075036076</v>
+        <v>14.23599999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>38.26657301587302</v>
+        <v>38.55199999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.847255610834702</v>
+        <v>6.830507462686565</v>
       </c>
       <c r="B44" t="n">
-        <v>3.516333333333335</v>
+        <v>3.408000000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>11.16602222222223</v>
+        <v>11.16</v>
       </c>
       <c r="D44" t="n">
-        <v>56.50402966121754</v>
+        <v>56.45836815920389</v>
       </c>
       <c r="E44" t="n">
-        <v>39.73466666666663</v>
+        <v>39.06000000000002</v>
       </c>
       <c r="F44" t="n">
-        <v>71.77906666666665</v>
+        <v>71.77199999999998</v>
       </c>
       <c r="G44" t="n">
-        <v>84.49749917081255</v>
+        <v>84.24352238805965</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95348797912325</v>
+        <v>71.69200000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>92.17603857623862</v>
+        <v>92.07999999999997</v>
       </c>
       <c r="J44" t="n">
-        <v>70.22343781094521</v>
+        <v>70.10368159203973</v>
       </c>
       <c r="K44" t="n">
-        <v>54.42816410256412</v>
+        <v>54.19200000000004</v>
       </c>
       <c r="L44" t="n">
-        <v>82.37622222222232</v>
+        <v>82.12799999999994</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.0672730790492</v>
+        <v>13.3201592039801</v>
       </c>
       <c r="B45" t="n">
-        <v>7.667999999999999</v>
+        <v>7.603999999999998</v>
       </c>
       <c r="C45" t="n">
-        <v>20.15606666666667</v>
+        <v>20.15599999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>66.27592983100361</v>
+        <v>67.21255721393022</v>
       </c>
       <c r="E45" t="n">
-        <v>49.81749131979132</v>
+        <v>50.01200000000004</v>
       </c>
       <c r="F45" t="n">
-        <v>81.58800000000008</v>
+        <v>81.47200000000007</v>
       </c>
       <c r="G45" t="n">
-        <v>86.63577499802574</v>
+        <v>86.73464676616915</v>
       </c>
       <c r="H45" t="n">
-        <v>76.26698511522872</v>
+        <v>76.72399999999993</v>
       </c>
       <c r="I45" t="n">
-        <v>93.34871448830427</v>
+        <v>93.31200000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>77.69444709784402</v>
+        <v>77.7096119402984</v>
       </c>
       <c r="K45" t="n">
-        <v>64.51650606060608</v>
+        <v>65.09200000000004</v>
       </c>
       <c r="L45" t="n">
-        <v>87.45590313945316</v>
+        <v>87.57999999999998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.11017271315379</v>
+        <v>10.09273631840795</v>
       </c>
       <c r="B46" t="n">
-        <v>5.627465079365078</v>
+        <v>5.571999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>15.605691005291</v>
+        <v>15.588</v>
       </c>
       <c r="D46" t="n">
-        <v>67.04012330016576</v>
+        <v>66.97914427860698</v>
       </c>
       <c r="E46" t="n">
-        <v>49.4669682539683</v>
+        <v>49.456</v>
       </c>
       <c r="F46" t="n">
-        <v>81.23518095238093</v>
+        <v>81.19599999999993</v>
       </c>
       <c r="G46" t="n">
-        <v>92.1828059701492</v>
+        <v>92.15532338308459</v>
       </c>
       <c r="H46" t="n">
-        <v>85.78041694329258</v>
+        <v>85.60399999999996</v>
       </c>
       <c r="I46" t="n">
-        <v>96.29420617160612</v>
+        <v>96.15999999999998</v>
       </c>
       <c r="J46" t="n">
-        <v>85.0160487519113</v>
+        <v>85.11410945273606</v>
       </c>
       <c r="K46" t="n">
-        <v>73.53940556285657</v>
+        <v>74.68000000000002</v>
       </c>
       <c r="L46" t="n">
-        <v>91.93606676286677</v>
+        <v>91.85200000000003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.14607800642327</v>
+        <v>14.09755223880594</v>
       </c>
       <c r="B47" t="n">
-        <v>8.082251659451657</v>
+        <v>8.1</v>
       </c>
       <c r="C47" t="n">
-        <v>21.66353815628815</v>
+        <v>21.44000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>74.89618893652838</v>
+        <v>74.84083582089532</v>
       </c>
       <c r="E47" t="n">
-        <v>58.42858464505902</v>
+        <v>58.32000000000002</v>
       </c>
       <c r="F47" t="n">
-        <v>86.95647241133122</v>
+        <v>86.64400000000003</v>
       </c>
       <c r="G47" t="n">
-        <v>96.40438800121242</v>
+        <v>96.43070646766154</v>
       </c>
       <c r="H47" t="n">
-        <v>93.60952954455621</v>
+        <v>93.58400000000002</v>
       </c>
       <c r="I47" t="n">
-        <v>98.33169704323507</v>
+        <v>98.28399999999993</v>
       </c>
       <c r="J47" t="n">
-        <v>92.99302875116254</v>
+        <v>93.08905472636809</v>
       </c>
       <c r="K47" t="n">
-        <v>85.12167693655759</v>
+        <v>84.57199999999997</v>
       </c>
       <c r="L47" t="n">
-        <v>97.21465247106843</v>
+        <v>97.11200000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.878941514648965</v>
+        <v>3.867741293532327</v>
       </c>
       <c r="B48" t="n">
-        <v>1.487999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="C48" t="n">
-        <v>6.865999999999992</v>
+        <v>7.024000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>33.12763184079591</v>
+        <v>32.9775522388059</v>
       </c>
       <c r="E48" t="n">
-        <v>19.49159999999998</v>
+        <v>19.512</v>
       </c>
       <c r="F48" t="n">
-        <v>45.54133333333334</v>
+        <v>46.20399999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>45.23073631840787</v>
+        <v>45.21132338308446</v>
       </c>
       <c r="H48" t="n">
-        <v>27.56554771524771</v>
+        <v>28.04400000000001</v>
       </c>
       <c r="I48" t="n">
-        <v>60.05188888888891</v>
+        <v>59.98799999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>27.87639800995015</v>
+        <v>27.62262686567155</v>
       </c>
       <c r="K48" t="n">
-        <v>15.93029595959596</v>
+        <v>15.864</v>
       </c>
       <c r="L48" t="n">
-        <v>40.02305555555553</v>
+        <v>40.65600000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1964240957382634</v>
+        <v>0.2067462686567149</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6741802495978965</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="D49" t="n">
-        <v>4.42765805496327</v>
+        <v>4.44193034825869</v>
       </c>
       <c r="E49" t="n">
-        <v>2.039755555555557</v>
+        <v>2.036</v>
       </c>
       <c r="F49" t="n">
-        <v>7.163227561327562</v>
+        <v>7.044</v>
       </c>
       <c r="G49" t="n">
-        <v>4.087475685066722</v>
+        <v>4.10666666666665</v>
       </c>
       <c r="H49" t="n">
-        <v>1.680618068138926</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>6.940241414141415</v>
+        <v>7.008000000000002</v>
       </c>
       <c r="J49" t="n">
-        <v>1.234432848025385</v>
+        <v>1.200398009950249</v>
       </c>
       <c r="K49" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.3839999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>2.444172775372774</v>
+        <v>2.296000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4208992514579573</v>
+        <v>0.4364179104477603</v>
       </c>
       <c r="B50" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.26213722943723</v>
+        <v>1.236</v>
       </c>
       <c r="D50" t="n">
-        <v>6.509686827765924</v>
+        <v>6.547522388059693</v>
       </c>
       <c r="E50" t="n">
-        <v>3.494185714285714</v>
+        <v>3.424000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>10.21335238095238</v>
+        <v>10.26</v>
       </c>
       <c r="G50" t="n">
-        <v>5.614646766169142</v>
+        <v>5.595999999999986</v>
       </c>
       <c r="H50" t="n">
-        <v>2.363788693739217</v>
+        <v>2.408000000000002</v>
       </c>
       <c r="I50" t="n">
-        <v>9.111117460317466</v>
+        <v>9.212000000000002</v>
       </c>
       <c r="J50" t="n">
-        <v>2.019990049751242</v>
+        <v>2.011263681592038</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.6440000000000005</v>
       </c>
       <c r="L50" t="n">
-        <v>3.825857142857146</v>
+        <v>3.775999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.09416463264969878</v>
+        <v>0.08473631840796009</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.400654970760233</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>2.239500102661292</v>
+        <v>2.22907462686567</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9075067102831804</v>
+        <v>0.856</v>
       </c>
       <c r="F51" t="n">
-        <v>3.859690476190474</v>
+        <v>3.831999999999998</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8098344468135508</v>
+        <v>0.7921791044776115</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08377390890368729</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>1.863072142672144</v>
+        <v>1.831999999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2781671483850579</v>
+        <v>0.275621890547263</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.8275990736359147</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.035132264602904</v>
+        <v>9.033094527363183</v>
       </c>
       <c r="B52" t="n">
-        <v>4.388666666666665</v>
+        <v>4.419999999999998</v>
       </c>
       <c r="C52" t="n">
-        <v>14.08492804232804</v>
+        <v>14.064</v>
       </c>
       <c r="D52" t="n">
-        <v>65.16863147358434</v>
+        <v>65.19410945273624</v>
       </c>
       <c r="E52" t="n">
-        <v>47.0294</v>
+        <v>46.66399999999998</v>
       </c>
       <c r="F52" t="n">
-        <v>79.29973333333329</v>
+        <v>79.35599999999994</v>
       </c>
       <c r="G52" t="n">
-        <v>92.42500348258694</v>
+        <v>92.24702487562179</v>
       </c>
       <c r="H52" t="n">
-        <v>85.78344948297512</v>
+        <v>85.75199999999997</v>
       </c>
       <c r="I52" t="n">
-        <v>96.25238110778119</v>
+        <v>96.20399999999992</v>
       </c>
       <c r="J52" t="n">
-        <v>84.193990665719</v>
+        <v>84.22967164179103</v>
       </c>
       <c r="K52" t="n">
-        <v>73.51239657515974</v>
+        <v>73.70800000000007</v>
       </c>
       <c r="L52" t="n">
-        <v>92.0335172050172</v>
+        <v>91.70800000000003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.054084245439467</v>
+        <v>4.148119402985069</v>
       </c>
       <c r="B53" t="n">
-        <v>1.691999999999999</v>
+        <v>1.687999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>7.591999999999983</v>
+        <v>7.616000000000006</v>
       </c>
       <c r="D53" t="n">
-        <v>32.85315422885566</v>
+        <v>33.61550248756213</v>
       </c>
       <c r="E53" t="n">
-        <v>20.79399999999997</v>
+        <v>21.02800000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>48.32399999999996</v>
+        <v>48.55199999999995</v>
       </c>
       <c r="G53" t="n">
-        <v>44.8348656716417</v>
+        <v>45.31299502487553</v>
       </c>
       <c r="H53" t="n">
-        <v>27.10925873015873</v>
+        <v>28.32799999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>60.66266666666669</v>
+        <v>61.16399999999995</v>
       </c>
       <c r="J53" t="n">
-        <v>28.0853134328357</v>
+        <v>28.35588059701481</v>
       </c>
       <c r="K53" t="n">
-        <v>15.95529595959596</v>
+        <v>16.164</v>
       </c>
       <c r="L53" t="n">
-        <v>41.36355555555559</v>
+        <v>41.76399999999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1745513883692694</v>
+        <v>0.1813333333333332</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6121871275840312</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="D54" t="n">
-        <v>3.365664680206464</v>
+        <v>3.38855721393034</v>
       </c>
       <c r="E54" t="n">
-        <v>1.527955167055167</v>
+        <v>1.58</v>
       </c>
       <c r="F54" t="n">
-        <v>5.485105627705629</v>
+        <v>5.504</v>
       </c>
       <c r="G54" t="n">
-        <v>1.150971180174165</v>
+        <v>1.143343283582089</v>
       </c>
       <c r="H54" t="n">
-        <v>0.154698252591056</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="I54" t="n">
-        <v>2.412645887445885</v>
+        <v>2.352</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4441991427036198</v>
+        <v>0.4366965174129341</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1.039363974908247</v>
+        <v>1.068000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3652836459836454</v>
+        <v>0.3688955223880594</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9786506678506678</v>
+        <v>1.016</v>
       </c>
       <c r="D55" t="n">
-        <v>5.980724338983286</v>
+        <v>6.007761194029841</v>
       </c>
       <c r="E55" t="n">
-        <v>3.084329581529581</v>
+        <v>3.140000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>9.29295238095238</v>
+        <v>9.156000000000004</v>
       </c>
       <c r="G55" t="n">
-        <v>5.088979080786537</v>
+        <v>5.092378109452729</v>
       </c>
       <c r="H55" t="n">
-        <v>2.319692081545082</v>
+        <v>2.256000000000002</v>
       </c>
       <c r="I55" t="n">
-        <v>8.646380952380948</v>
+        <v>8.604000000000006</v>
       </c>
       <c r="J55" t="n">
-        <v>1.751488272921108</v>
+        <v>1.760835820895523</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5920000000000004</v>
       </c>
       <c r="L55" t="n">
-        <v>3.19979672179672</v>
+        <v>3.276</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.71462321724706</v>
+        <v>11.80654726368159</v>
       </c>
       <c r="B56" t="n">
-        <v>5.798999999999999</v>
+        <v>6.108000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>17.82176507936508</v>
+        <v>17.872</v>
       </c>
       <c r="D56" t="n">
-        <v>69.52815097133372</v>
+        <v>69.51285572139295</v>
       </c>
       <c r="E56" t="n">
-        <v>53.30130631329458</v>
+        <v>52.97199999999996</v>
       </c>
       <c r="F56" t="n">
-        <v>82.6588365079365</v>
+        <v>82.00799999999994</v>
       </c>
       <c r="G56" t="n">
-        <v>92.5968818511774</v>
+        <v>92.62563184079583</v>
       </c>
       <c r="H56" t="n">
-        <v>86.36722453478502</v>
+        <v>86.94</v>
       </c>
       <c r="I56" t="n">
-        <v>96.5268871921794</v>
+        <v>96.492</v>
       </c>
       <c r="J56" t="n">
-        <v>85.52343982500284</v>
+        <v>85.68915422885573</v>
       </c>
       <c r="K56" t="n">
-        <v>74.6089507117336</v>
+        <v>75.17199999999997</v>
       </c>
       <c r="L56" t="n">
-        <v>92.72899129323828</v>
+        <v>92.74000000000005</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.24390595698754</v>
+        <v>11.29209950248755</v>
       </c>
       <c r="B57" t="n">
-        <v>6.2504585048938</v>
+        <v>6.119999999999997</v>
       </c>
       <c r="C57" t="n">
-        <v>17.3527899063899</v>
+        <v>17.27600000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>70.99051426367984</v>
+        <v>70.94340298507447</v>
       </c>
       <c r="E57" t="n">
-        <v>54.03376664952212</v>
+        <v>53.44000000000003</v>
       </c>
       <c r="F57" t="n">
-        <v>84.55478014142719</v>
+        <v>84.27999999999994</v>
       </c>
       <c r="G57" t="n">
-        <v>95.29358179571905</v>
+        <v>95.32017910447752</v>
       </c>
       <c r="H57" t="n">
-        <v>91.39344687727082</v>
+        <v>91.38400000000007</v>
       </c>
       <c r="I57" t="n">
-        <v>97.82996973970417</v>
+        <v>97.76400000000007</v>
       </c>
       <c r="J57" t="n">
-        <v>90.47695524300208</v>
+        <v>90.30187064676615</v>
       </c>
       <c r="K57" t="n">
-        <v>81.72589466905279</v>
+        <v>82.21199999999997</v>
       </c>
       <c r="L57" t="n">
-        <v>95.65463266563259</v>
+        <v>95.684</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4151862005508766</v>
+        <v>0.4225671641791033</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.236922414622415</v>
+        <v>1.220000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>6.542874555792456</v>
+        <v>6.508756218905464</v>
       </c>
       <c r="E58" t="n">
-        <v>3.44460952380952</v>
+        <v>3.424000000000003</v>
       </c>
       <c r="F58" t="n">
-        <v>10.1928</v>
+        <v>10.14</v>
       </c>
       <c r="G58" t="n">
-        <v>5.624781426202309</v>
+        <v>5.524278606965161</v>
       </c>
       <c r="H58" t="n">
-        <v>2.345459023409547</v>
+        <v>2.416000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>9.132403174603169</v>
+        <v>9.096000000000002</v>
       </c>
       <c r="J58" t="n">
-        <v>1.984026533996682</v>
+        <v>1.982786069651739</v>
       </c>
       <c r="K58" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="L58" t="n">
-        <v>3.638520971620979</v>
+        <v>3.667999999999998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.831887230514081</v>
+        <v>8.81653731343283</v>
       </c>
       <c r="B59" t="n">
-        <v>4.448400000000001</v>
+        <v>4.572000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>14.12544126984127</v>
+        <v>14.09599999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>61.91531393034815</v>
+        <v>61.87695522388046</v>
       </c>
       <c r="E59" t="n">
-        <v>45.20180952380952</v>
+        <v>44.80800000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>77.08465829725831</v>
+        <v>77.05599999999995</v>
       </c>
       <c r="G59" t="n">
-        <v>85.59785663744753</v>
+        <v>85.71373134328341</v>
       </c>
       <c r="H59" t="n">
-        <v>74.41605051031988</v>
+        <v>74.82799999999993</v>
       </c>
       <c r="I59" t="n">
-        <v>92.70248555534657</v>
+        <v>92.65999999999998</v>
       </c>
       <c r="J59" t="n">
-        <v>73.77486841980561</v>
+        <v>73.92417910447752</v>
       </c>
       <c r="K59" t="n">
-        <v>57.97922308802309</v>
+        <v>57.64799999999997</v>
       </c>
       <c r="L59" t="n">
-        <v>85.48339740259735</v>
+        <v>85.40000000000003</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1878147479321313</v>
+        <v>0.2077014925373125</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6562804120773152</v>
+        <v>0.7480000000000002</v>
       </c>
       <c r="D60" t="n">
-        <v>3.623757766721937</v>
+        <v>3.717890547263669</v>
       </c>
       <c r="E60" t="n">
-        <v>1.52492977022977</v>
+        <v>1.508</v>
       </c>
       <c r="F60" t="n">
-        <v>6.372914285714287</v>
+        <v>6.416000000000002</v>
       </c>
       <c r="G60" t="n">
-        <v>1.186316567953881</v>
+        <v>1.213611940298506</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2423425964430181</v>
+        <v>0.304</v>
       </c>
       <c r="I60" t="n">
-        <v>2.488164550264552</v>
+        <v>2.567999999999998</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5454862670773101</v>
+        <v>0.5587263681592021</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1.362673015873018</v>
+        <v>1.356</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13.60368847034668</v>
+        <v>13.79114427860697</v>
       </c>
       <c r="B61" t="n">
-        <v>7.307923809523809</v>
+        <v>7.427999999999995</v>
       </c>
       <c r="C61" t="n">
-        <v>20.45667954852166</v>
+        <v>20.464</v>
       </c>
       <c r="D61" t="n">
-        <v>71.3797171652559</v>
+        <v>71.42083582089548</v>
       </c>
       <c r="E61" t="n">
-        <v>55.04252876283989</v>
+        <v>55.49199999999998</v>
       </c>
       <c r="F61" t="n">
-        <v>83.32615670995672</v>
+        <v>83.348</v>
       </c>
       <c r="G61" t="n">
-        <v>92.69986507646514</v>
+        <v>92.71729353233826</v>
       </c>
       <c r="H61" t="n">
-        <v>86.41046035125615</v>
+        <v>86.17600000000004</v>
       </c>
       <c r="I61" t="n">
-        <v>96.61339556898781</v>
+        <v>96.74000000000007</v>
       </c>
       <c r="J61" t="n">
-        <v>85.90670256066406</v>
+        <v>86.0768358208954</v>
       </c>
       <c r="K61" t="n">
-        <v>75.70595089716909</v>
+        <v>75.37599999999993</v>
       </c>
       <c r="L61" t="n">
-        <v>93.18081266859505</v>
+        <v>93.27999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.31754183842692</v>
+        <v>10.40883582089552</v>
       </c>
       <c r="B62" t="n">
-        <v>5.206000000000002</v>
+        <v>5.436</v>
       </c>
       <c r="C62" t="n">
-        <v>16.18547301587304</v>
+        <v>16.33599999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>64.15373006181211</v>
+        <v>64.32905472636808</v>
       </c>
       <c r="E62" t="n">
-        <v>46.5463968253968</v>
+        <v>46.57199999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>77.61645182595186</v>
+        <v>78.42400000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>86.34225606096494</v>
+        <v>86.35852736318395</v>
       </c>
       <c r="H62" t="n">
-        <v>75.20304568105327</v>
+        <v>75.26800000000004</v>
       </c>
       <c r="I62" t="n">
-        <v>93.1483946414845</v>
+        <v>93.13999999999994</v>
       </c>
       <c r="J62" t="n">
-        <v>75.74300679933661</v>
+        <v>75.80195024875611</v>
       </c>
       <c r="K62" t="n">
-        <v>61.32496883116881</v>
+        <v>61.59599999999996</v>
       </c>
       <c r="L62" t="n">
-        <v>87.27549117353234</v>
+        <v>87.38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.57690974755847</v>
+        <v>15.43156218905472</v>
       </c>
       <c r="B63" t="n">
-        <v>8.582844444444444</v>
+        <v>8.652000000000005</v>
       </c>
       <c r="C63" t="n">
-        <v>23.16267407407409</v>
+        <v>22.72</v>
       </c>
       <c r="D63" t="n">
-        <v>72.46348969869258</v>
+        <v>72.37122388059697</v>
       </c>
       <c r="E63" t="n">
-        <v>56.67795860685208</v>
+        <v>56.38799999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>84.77716190476188</v>
+        <v>85</v>
       </c>
       <c r="G63" t="n">
-        <v>92.80762414075689</v>
+        <v>92.71631840796007</v>
       </c>
       <c r="H63" t="n">
-        <v>86.89746089975716</v>
+        <v>86.89999999999998</v>
       </c>
       <c r="I63" t="n">
-        <v>96.7439486284958</v>
+        <v>96.73200000000006</v>
       </c>
       <c r="J63" t="n">
-        <v>86.50104458659072</v>
+        <v>86.31229850746257</v>
       </c>
       <c r="K63" t="n">
-        <v>75.02270575176459</v>
+        <v>74.78800000000003</v>
       </c>
       <c r="L63" t="n">
-        <v>93.27754286182228</v>
+        <v>93.58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1882956766220152</v>
+        <v>0.2126368159203971</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6522359676328707</v>
+        <v>0.7320000000000004</v>
       </c>
       <c r="D64" t="n">
-        <v>3.624324930901042</v>
+        <v>3.722388059701483</v>
       </c>
       <c r="E64" t="n">
-        <v>1.594390881340881</v>
+        <v>1.635999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>6.328914285714285</v>
+        <v>6.343999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>1.186316567953881</v>
+        <v>1.211940298507461</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1650733947198824</v>
+        <v>0.2319999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>2.485497883597885</v>
+        <v>2.567999999999998</v>
       </c>
       <c r="J64" t="n">
-        <v>0.547655421306166</v>
+        <v>0.5560597014925355</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.358173015873018</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.22538760167417</v>
+        <v>10.18839800995024</v>
       </c>
       <c r="B65" t="n">
-        <v>5.700165079365081</v>
+        <v>5.552000000000004</v>
       </c>
       <c r="C65" t="n">
-        <v>15.81909196729197</v>
+        <v>15.82</v>
       </c>
       <c r="D65" t="n">
-        <v>69.12839942746581</v>
+        <v>68.98411940298502</v>
       </c>
       <c r="E65" t="n">
-        <v>52.35364759227702</v>
+        <v>51.88000000000004</v>
       </c>
       <c r="F65" t="n">
-        <v>82.57627359307362</v>
+        <v>82.51200000000004</v>
       </c>
       <c r="G65" t="n">
-        <v>95.18767297925947</v>
+        <v>95.15850746268656</v>
       </c>
       <c r="H65" t="n">
-        <v>91.38145389481468</v>
+        <v>90.56800000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>97.76961217049323</v>
+        <v>97.58000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>89.95155372205252</v>
+        <v>89.88636815920377</v>
       </c>
       <c r="K65" t="n">
-        <v>81.28294633935252</v>
+        <v>80.21600000000007</v>
       </c>
       <c r="L65" t="n">
-        <v>95.34511533487074</v>
+        <v>95.12400000000007</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8.307243228302918</v>
+        <v>8.238666666666651</v>
       </c>
       <c r="B66" t="n">
-        <v>4.168000000000003</v>
+        <v>4.200000000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>13.43999292929291</v>
+        <v>13.528</v>
       </c>
       <c r="D66" t="n">
-        <v>53.75458142620225</v>
+        <v>53.94616915422876</v>
       </c>
       <c r="E66" t="n">
-        <v>36.26381616161613</v>
+        <v>36.58000000000002</v>
       </c>
       <c r="F66" t="n">
-        <v>67.83282727272731</v>
+        <v>68.40399999999995</v>
       </c>
       <c r="G66" t="n">
-        <v>71.99323880597014</v>
+        <v>72.43926368159205</v>
       </c>
       <c r="H66" t="n">
-        <v>55.54886070226069</v>
+        <v>56.18399999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>83.94832943722949</v>
+        <v>84.52799999999996</v>
       </c>
       <c r="J66" t="n">
-        <v>57.07977114427851</v>
+        <v>57.03140298507453</v>
       </c>
       <c r="K66" t="n">
-        <v>39.65212133422133</v>
+        <v>40.01599999999997</v>
       </c>
       <c r="L66" t="n">
-        <v>72.7015222222222</v>
+        <v>72.73200000000006</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.997391487009399</v>
+        <v>7.002208955223869</v>
       </c>
       <c r="B67" t="n">
-        <v>3.243999999999999</v>
+        <v>3.267999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>12.0789341991342</v>
+        <v>11.828</v>
       </c>
       <c r="D67" t="n">
-        <v>51.3886977019663</v>
+        <v>51.42348258706463</v>
       </c>
       <c r="E67" t="n">
-        <v>34.67917012987013</v>
+        <v>34.24399999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>68.63597200577202</v>
+        <v>67.80000000000007</v>
       </c>
       <c r="G67" t="n">
-        <v>70.97384941956871</v>
+        <v>70.84047761194017</v>
       </c>
       <c r="H67" t="n">
-        <v>53.59352164502166</v>
+        <v>53.39600000000004</v>
       </c>
       <c r="I67" t="n">
-        <v>83.90054565129856</v>
+        <v>84.10400000000001</v>
       </c>
       <c r="J67" t="n">
-        <v>54.27845605306786</v>
+        <v>54.46204975124364</v>
       </c>
       <c r="K67" t="n">
-        <v>37.3079974025974</v>
+        <v>36.99999999999997</v>
       </c>
       <c r="L67" t="n">
-        <v>71.1253222222222</v>
+        <v>70.96399999999998</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2907174317114612</v>
+        <v>0.3172935323383082</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9376519665519659</v>
+        <v>0.9719999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>5.349008355409088</v>
+        <v>5.404457711442774</v>
       </c>
       <c r="E68" t="n">
-        <v>2.803164502164502</v>
+        <v>2.747999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>8.753692063492061</v>
+        <v>8.628</v>
       </c>
       <c r="G68" t="n">
-        <v>4.759803514175149</v>
+        <v>4.708796019900495</v>
       </c>
       <c r="H68" t="n">
-        <v>1.824408789594972</v>
+        <v>1.98</v>
       </c>
       <c r="I68" t="n">
-        <v>7.902902645502636</v>
+        <v>7.900000000000006</v>
       </c>
       <c r="J68" t="n">
-        <v>1.580244728737265</v>
+        <v>1.584497512437811</v>
       </c>
       <c r="K68" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.4159999999999999</v>
       </c>
       <c r="L68" t="n">
-        <v>3.230832952232949</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14.32702757077085</v>
+        <v>14.74889552238804</v>
       </c>
       <c r="B69" t="n">
-        <v>8.353147474747473</v>
+        <v>8.131999999999994</v>
       </c>
       <c r="C69" t="n">
-        <v>22.34150108595107</v>
+        <v>22.71999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>74.90955735633412</v>
+        <v>74.95944278606959</v>
       </c>
       <c r="E69" t="n">
-        <v>58.60179396804597</v>
+        <v>58.95199999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>86.97983248263246</v>
+        <v>87.34</v>
       </c>
       <c r="G69" t="n">
-        <v>96.47987839171488</v>
+        <v>96.50871641791029</v>
       </c>
       <c r="H69" t="n">
-        <v>93.61242470584654</v>
+        <v>93.77999999999996</v>
       </c>
       <c r="I69" t="n">
-        <v>98.35484765429351</v>
+        <v>98.42399999999996</v>
       </c>
       <c r="J69" t="n">
-        <v>93.03123737625776</v>
+        <v>93.05707462686559</v>
       </c>
       <c r="K69" t="n">
-        <v>85.23665536502629</v>
+        <v>86.05200000000006</v>
       </c>
       <c r="L69" t="n">
-        <v>97.21596664763261</v>
+        <v>97.23599999999995</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2614129190395246</v>
+        <v>0.2589651741293525</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7684605359781824</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="D70" t="n">
-        <v>4.982210514885877</v>
+        <v>4.959860696517407</v>
       </c>
       <c r="E70" t="n">
-        <v>2.291648412698413</v>
+        <v>2.268000000000002</v>
       </c>
       <c r="F70" t="n">
-        <v>7.56981111111111</v>
+        <v>7.487999999999997</v>
       </c>
       <c r="G70" t="n">
-        <v>4.3201425132634</v>
+        <v>4.370348258706458</v>
       </c>
       <c r="H70" t="n">
-        <v>1.701348351363326</v>
+        <v>1.843999999999999</v>
       </c>
       <c r="I70" t="n">
-        <v>7.583422222222227</v>
+        <v>7.520000000000002</v>
       </c>
       <c r="J70" t="n">
-        <v>1.366825989102108</v>
+        <v>1.381094527363183</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.344</v>
       </c>
       <c r="L70" t="n">
-        <v>2.735238335738338</v>
+        <v>2.743999999999998</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.451793003237779</v>
+        <v>1.441074626865671</v>
       </c>
       <c r="B71" t="n">
         <v>0.3999999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>3.156099999999995</v>
+        <v>3.151999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>20.46425870646749</v>
+        <v>20.419422885572</v>
       </c>
       <c r="E71" t="n">
-        <v>10.81813333333334</v>
+        <v>10.61600000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>31.75999999999999</v>
+        <v>31.62799999999998</v>
       </c>
       <c r="G71" t="n">
-        <v>34.68694527363173</v>
+        <v>34.65737313432825</v>
       </c>
       <c r="H71" t="n">
-        <v>20.13102222222221</v>
+        <v>19.86</v>
       </c>
       <c r="I71" t="n">
-        <v>48.31999999999993</v>
+        <v>48.29200000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>16.75296517412935</v>
+        <v>16.61699502487562</v>
       </c>
       <c r="K71" t="n">
-        <v>8.799566477966472</v>
+        <v>8.416000000000004</v>
       </c>
       <c r="L71" t="n">
-        <v>26.05788888888895</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.236514427860686</v>
+        <v>2.233313432835807</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8071428571428573</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>4.509011111111119</v>
+        <v>4.483999999999998</v>
       </c>
       <c r="D72" t="n">
-        <v>25.55913432835806</v>
+        <v>25.48642786069635</v>
       </c>
       <c r="E72" t="n">
-        <v>13.91336666666666</v>
+        <v>13.94</v>
       </c>
       <c r="F72" t="n">
-        <v>38.68466666666664</v>
+        <v>38.47599999999996</v>
       </c>
       <c r="G72" t="n">
-        <v>39.00261028192364</v>
+        <v>39.07496517412928</v>
       </c>
       <c r="H72" t="n">
-        <v>23.60813030303031</v>
+        <v>23.13599999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>53.87800000000005</v>
+        <v>53.80399999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>20.65501824212258</v>
+        <v>20.6983283582088</v>
       </c>
       <c r="K72" t="n">
-        <v>11.11608685470166</v>
+        <v>10.65599999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>32.80452380952385</v>
+        <v>32.73999999999999</v>
       </c>
     </row>
   </sheetData>
